--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-Z.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-Z.RS0001.a205.xlsx
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-01T11:35Z</t>
+          <t>2022-12-20T09:13Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-Z.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-Z.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,22 +351,37 @@
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A32" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
       </text>
     </comment>
   </commentList>
@@ -469,32 +486,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -525,6 +527,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -820,7 +892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1101,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1048,7 +1120,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'Z': 75.0 ton, 2.47 COP liquid-cooled, centrifugal compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'Z': 0.0-150.0 ton, 5.00 COP, 5.25 IPLV liquid-cooled, centrifugal compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1139,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>5e82d941-e4e3-445b-adb0-6c04830b87e6</t>
+          <t>72b4c3bc-531b-4cfd-bfe5-588063d984f5</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1158,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-20T09:13Z</t>
+          <t>2024-02-22T13:52Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1104,7 +1176,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1409,34 +1481,36 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>112875.4136222782</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1446,13 +1520,13 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D31" s="4" t="n"/>
@@ -1465,13 +1539,13 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
@@ -1481,32 +1555,81 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    maximum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1667,7 +1790,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,7 +1953,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1985,9 +2108,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2032,32 +2152,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2104,32 +2209,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2231,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,31 +2240,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32892.76077698711</v>
+        <v>16274.40028167687</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>67133.45343549385</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>100026.214212481</v>
+        <v>83407.85371717071</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.450641425128</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.3143515787171</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +2268,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,31 +2277,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46185.25907432064</v>
+        <v>22851.14947889427</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>134266.9068709877</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>180452.1659453083</v>
+        <v>157118.056349882</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.8623939613671</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.4292244994443</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2229,7 +2305,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,31 +2314,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65290.46336050175</v>
+        <v>32303.85988300405</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>201400.3603064815</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>266690.8236669833</v>
+        <v>233704.2201894856</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.2741464976062</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.6246737560865</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2342,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,31 +2351,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>90208.3736355305</v>
+        <v>44632.53149400622</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>268533.8137419754</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>358742.1873775059</v>
+        <v>313166.3452359816</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.6858990338454</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.9006993486438</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2379,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,31 +2388,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>36323.78753107642</v>
+        <v>17971.97450330493</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>63235.62348717425</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>99559.41101825067</v>
+        <v>81207.59799047917</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.3686737766045</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.3868924406718</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2361,7 +2416,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,31 +2425,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51002.81940630121</v>
+        <v>25234.74098571097</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>126471.2469743485</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>177474.0663806497</v>
+        <v>151705.9879600595</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.6984586643201</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.4708176973314</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2453,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,31 +2462,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>72100.87760622527</v>
+        <v>35673.45869139847</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>189706.8704615227</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>261807.748067748</v>
+        <v>225380.3291529212</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.0282435520357</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.6440425180351</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2490,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,31 +2499,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>99617.96213084862</v>
+        <v>49288.12762036747</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>252942.493948697</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>352560.4560795456</v>
+        <v>302230.6215690644</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.3580284397514</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.9065669027827</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2493,7 +2527,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,31 +2536,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37194.60797426892</v>
+        <v>18402.83163208377</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>59511.53767163928</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>96706.1456459082</v>
+        <v>77914.36930372306</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.290359801586</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.4256096939853</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2537,7 +2564,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,31 +2573,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52225.55251918115</v>
+        <v>25839.71447065453</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>119023.0753432786</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>171248.6278624597</v>
+        <v>144862.7898139331</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.5418307142831</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.4659652743525</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2581,7 +2601,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,31 +2610,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>73829.41205869404</v>
+        <v>36528.68825911015</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>178534.6130149178</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>252364.0250736119</v>
+        <v>215063.301274028</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.7933016269802</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.5980560450512</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2625,7 +2638,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,31 +2647,24 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>102006.1865928077</v>
+        <v>50469.75299745064</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>238046.1506865571</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>340052.3372793648</v>
+        <v>288515.9036840078</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>282.0447725396774</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>308.8218820060813</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2669,7 +2675,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,31 +2684,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35910.10493034963</v>
+        <v>17767.29614628167</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>55961.19598888893</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>91871.30091923857</v>
+        <v>73728.4921351706</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.2156995000725</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.4363495144898</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2713,7 +2712,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,31 +2721,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50421.96095484302</v>
+        <v>24947.34878381835</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>111922.3919777779</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>162344.3529326209</v>
+        <v>136869.7407615962</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.3925101112561</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.4230883038068</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2749,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,31 +2758,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71279.73860640846</v>
+        <v>35267.18252441695</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>167883.5879666668</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>239163.3265730753</v>
+        <v>203150.7704910837</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.5693207224397</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.4986804469165</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2801,7 +2786,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,31 +2795,24 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>98483.43788504595</v>
+        <v>48726.79736807749</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>223844.7839555557</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>322328.2218406016</v>
+        <v>272571.5813236332</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.7461313336232</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.6631259438189</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2845,7 +2823,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,31 +2832,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>33115.9284073909</v>
+        <v>16384.81726283965</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>73386.5041412346</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>106502.4325486255</v>
+        <v>89771.32140407426</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.4743939506527</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.4041255919071</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2889,7 +2860,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,31 +2869,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46498.61236494537</v>
+        <v>23006.18775360107</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>146773.0082824692</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>193271.6206474146</v>
+        <v>169779.1960360703</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>284.0210101235275</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.6069291159012</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2933,7 +2897,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,31 +2906,24 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>65733.43979823278</v>
+        <v>32523.03199542915</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>220159.5124237038</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>285892.9522219365</v>
+        <v>252682.544419133</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.5676262964024</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.8908556623617</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2934,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,31 +2943,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>90820.41070725316</v>
+        <v>44935.34998832393</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>293546.0165649384</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>384366.4272721916</v>
+        <v>338481.3665532623</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>287.1142424692773</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>291.2559052312886</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,7 +2971,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,31 +2980,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37636.50450802869</v>
+        <v>18621.46943881125</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>70249.58041729769</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>107886.0849253264</v>
+        <v>88871.04985610895</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.4082834713311</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.502730624257</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3065,7 +3008,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,31 +3017,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>52846.02661176684</v>
+        <v>26146.70736236141</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>140499.1608345954</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>193345.1874463622</v>
+        <v>166645.8681969568</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.8887891648843</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.6916119611911</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3109,7 +3045,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,31 +3054,24 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>74706.55428589079</v>
+        <v>36962.67322638442</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>210748.7412518931</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>285455.2955377839</v>
+        <v>247711.4144782775</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.3692948584375</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.9730200876798</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3082,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,31 +3091,24 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>103218.0875304005</v>
+        <v>51069.36703088028</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>280998.3216691908</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>384216.4091995913</v>
+        <v>332067.6887000711</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.8498005519907</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.3469550037229</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3119,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,31 +3128,24 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>39455.01834998155</v>
+        <v>19521.21824318697</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>67286.40082614547</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>106741.419176127</v>
+        <v>86807.61906933245</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3458346391863</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.5656674504112</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3241,7 +3156,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,31 +3165,24 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>55399.43140166188</v>
+        <v>27410.0592565258</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>134572.8016522909</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>189972.2330539528</v>
+        <v>161982.8609088167</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7638915005947</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.7272821310809</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3285,7 +3193,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,31 +3202,24 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>78316.21211223098</v>
+        <v>38748.62900990892</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>201859.2024784364</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>280175.4145906674</v>
+        <v>240607.8314883453</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1819483620031</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.9862069815572</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3230,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,31 +3239,24 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>108205.3604816889</v>
+        <v>53536.92750333634</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>269145.6033045819</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>377350.9637862708</v>
+        <v>322682.5308079182</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.6000052234116</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.34244200184</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3267,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,31 +3276,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>38899.03520884194</v>
+        <v>19246.1336356614</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>64496.96536777783</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>103396.0005766198</v>
+        <v>83743.09900343923</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.2870474542183</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.5977142895673</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3417,7 +3304,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,31 +3313,24 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>54618.76645266031</v>
+        <v>27023.80849599934</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>128993.9307355557</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>183612.697188216</v>
+        <v>156017.739231555</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.6463171306588</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.7208801499377</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3461,7 +3341,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,31 +3350,24 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>77212.61375052006</v>
+        <v>38202.60000339111</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>193490.8961033335</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>270703.5098538536</v>
+        <v>231693.4961067246</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>285.0055868070993</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.9402949559546</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3505,7 +3378,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,31 +3387,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>106680.5771024212</v>
+        <v>52782.50815783673</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>257987.8614711113</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>364668.4385735325</v>
+        <v>310770.369628948</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>286.3648564835398</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.2559587076183</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3549,7 +3415,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,31 +3424,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>32771.17101695615</v>
+        <v>16214.2411348569</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>76085.3349469753</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>108856.5059639314</v>
+        <v>92299.5760818322</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.4231580548567</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.4367580028091</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3593,7 +3452,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,31 +3461,24 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>46014.53291953269</v>
+        <v>22766.67904479455</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>152170.6698939506</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>198185.2028134833</v>
+        <v>174937.3489387452</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>288.0296494430468</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.6750417037251</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3637,7 +3489,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,31 +3498,24 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>65049.11384818389</v>
+        <v>32184.44702502356</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>228256.0048409259</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>293305.1186891098</v>
+        <v>260440.4518659495</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.6361408312368</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>289.9936038860398</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3526,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,31 +3535,24 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>89874.91380290977</v>
+        <v>44467.54507554396</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>304341.3397879012</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>394216.253590811</v>
+        <v>348808.8848634452</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>291.2426322194269</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>291.3924445497535</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3725,7 +3563,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,31 +3572,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>37979.32284165236</v>
+        <v>18791.0861767651</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>73709.31744742113</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>111688.6402890735</v>
+        <v>92500.40362418623</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.3729900211104</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.5556306310585</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3769,7 +3600,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,31 +3609,24 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>53327.3833960509</v>
+        <v>26384.86897606276</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>147418.6348948423</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>200746.0182908931</v>
+        <v>173803.503870905</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>287.929313375554</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.794570094489</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3813,7 +3637,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,31 +3646,24 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>75387.03130642786</v>
+        <v>37299.35385619799</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>221127.9523422634</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>296514.9836486912</v>
+        <v>258427.3061984614</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.4856367299978</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>299.1268791430581</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3857,7 +3674,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,31 +3683,24 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>104158.2665727833</v>
+        <v>51534.54081717083</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>294837.2697896845</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>398995.5363624677</v>
+        <v>346371.8106068553</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>291.0419600844415</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.5525577767662</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3711,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,31 +3720,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>40467.25803122515</v>
+        <v>20022.04557918489</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>71507.04408065158</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>111974.3021118767</v>
+        <v>91529.08965983648</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.326490479502</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.6387004217014</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3945,7 +3748,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,31 +3757,24 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>56820.73356114044</v>
+        <v>28113.27904465465</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>143014.0881613032</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>199834.8217224436</v>
+        <v>171127.3672059578</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.8363142923372</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.8649298032945</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3989,7 +3785,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,31 +3794,24 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>80325.45658606426</v>
+        <v>39742.74589333537</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>214521.1322419547</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>294846.588828019</v>
+        <v>254263.8781352901</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.3461381051726</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.1909658993516</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +3822,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,31 +3831,24 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>110981.4271059966</v>
+        <v>54910.44612522705</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>286028.1763226063</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>397009.603428603</v>
+        <v>340938.6224478334</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.8559619180079</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.6168087098725</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4077,7 +3859,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,31 +3868,24 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>40485.22431307461</v>
+        <v>20030.93478323724</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>69478.51484666667</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>109963.7391597413</v>
+        <v>89509.44962990392</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.2836594300315</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.6896734460521</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4121,7 +3896,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,31 +3905,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>56845.96030897853</v>
+        <v>28125.76052028711</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>138957.0296933333</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>195802.9900023119</v>
+        <v>167082.7902136205</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.7506521933964</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.8915643253657</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4165,7 +3933,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,31 +3942,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>80361.11874512625</v>
+        <v>39760.39051293475</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>208435.54454</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>288796.6632851263</v>
+        <v>248195.9350529348</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>289.2176449567613</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>317.1936289013656</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4209,7 +3970,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,31 +3979,24 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>111030.6996215178</v>
+        <v>54934.82476118021</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>277914.0593866667</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>388944.7590081845</v>
+        <v>332848.8841478469</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.6846377201261</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.5958671740518</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4253,7 +4007,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,31 +4016,24 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>32224.58378682216</v>
+        <v>15943.80535622572</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>75229.94585271599</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>107454.5296395381</v>
+        <v>91173.7512089417</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.2966174093734</v>
+        <v>0</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.4173236609594</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4044,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,31 +4053,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>45247.06092161771</v>
+        <v>22386.95578034344</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>150459.891705432</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>195706.9526270497</v>
+        <v>172846.8474857754</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>291.8876792631912</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.6406879414865</v>
-      </c>
-      <c r="K54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4341,7 +4081,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,31 +4090,24 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>63964.16589369814</v>
+        <v>31647.64570829003</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>225689.837558148</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>289654.0034518461</v>
+        <v>257337.483266438</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.478741117009</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>289.9429917462917</v>
-      </c>
-      <c r="K55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4385,7 +4118,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,31 +4127,24 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>88375.89870306345</v>
+        <v>43725.87514006549</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>300919.783410864</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>389295.6821139274</v>
+        <v>344645.6585509295</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>295.0698029708268</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>291.3242350753751</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4429,7 +4155,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,31 +4164,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>37759.36992028057</v>
+        <v>18682.25974198213</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>73614.83457754453</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>111374.2044978251</v>
+        <v>92297.09431952666</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.2624589115775</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.5512562948808</v>
-      </c>
-      <c r="K57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4473,7 +4192,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,31 +4201,24 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>53018.54393053494</v>
+        <v>26232.06401333362</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>147229.6691550891</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>200248.213085624</v>
+        <v>173461.7331684227</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.8193622675994</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.787644778162</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4517,7 +4229,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,31 +4238,24 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>74950.43590322575</v>
+        <v>37083.33889773874</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>220844.5037326336</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>295794.9396358593</v>
+        <v>257927.8426303723</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.3762656236213</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>299.1168621072671</v>
-      </c>
-      <c r="K59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4561,7 +4266,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,31 +4275,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>103555.045838353</v>
+        <v>51236.08439519749</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>294459.3383101781</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>398014.3841485311</v>
+        <v>345695.4227053756</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>294.9331689796431</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.538908282196</v>
-      </c>
-      <c r="K60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4605,7 +4303,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,31 +4312,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>40679.48661352689</v>
+        <v>20127.05023121178</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>72173.46743515773</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>112852.9540486846</v>
+        <v>92300.5176663695</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.2319749832481</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.6509633678561</v>
-      </c>
-      <c r="K61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4649,7 +4340,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,31 +4349,24 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>57118.72715684492</v>
+        <v>28260.71778020962</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>144346.9348703155</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>201465.6620271604</v>
+        <v>172607.6526505251</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.7583944109406</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.88769070099</v>
-      </c>
-      <c r="K62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4693,7 +4377,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,31 +4386,24 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>80746.71956762941</v>
+        <v>39951.17480668582</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>216520.4023054732</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>297267.1218731026</v>
+        <v>256471.577112159</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.2848138386331</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.2247481800865</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4737,7 +4414,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,31 +4423,24 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>111563.4638458804</v>
+        <v>55198.42131064042</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>288693.8697406309</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>400257.3335865113</v>
+        <v>343892.2910512713</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.8112332663256</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.6621358051455</v>
-      </c>
-      <c r="K64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4451,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,31 +4460,24 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>41157.8640457687</v>
+        <v>20363.73774646197</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>70905.84442555554</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>112063.7084713242</v>
+        <v>91269.58217201752</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.2051656243852</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.7190764748257</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4825,7 +4488,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,31 +4497,24 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>57790.42467087219</v>
+        <v>28593.05456050004</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>141811.6888511111</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>199602.1135219833</v>
+        <v>170404.7434116111</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.7047756932149</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.944758311367</v>
-      </c>
-      <c r="K66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4869,7 +4525,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,31 +4534,24 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>81696.27452970869</v>
+        <v>40420.98753074097</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>212717.5332766666</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>294413.8078063753</v>
+        <v>253138.5208074076</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>293.2043857620445</v>
+        <v>0</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>317.2722781754635</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4913,7 +4562,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.01722261219808037</v>
+        <v>0.01471772729077111</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,31 +4571,24 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>112875.4136222782</v>
+        <v>55847.53665718478</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>283623.3777022221</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>396498.7913245003</v>
+        <v>339470.9143594069</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.7039958308741</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.7016360671153</v>
-      </c>
-      <c r="K68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5129,4 +4771,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.01130153653374901</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>277.0388888888889</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.01130153653374901</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>280.9277777777778</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.01130153653374901</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>284.8166666666667</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.01130153653374901</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>288.7055555555556</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.01471772729077111</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>285.9277777777778</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.01471772729077111</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>295.0018518518519</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.01471772729077111</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>304.075925925926</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.01471772729077111</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>